--- a/figures/BMP_Table5/BMP_Table5.xlsx
+++ b/figures/BMP_Table5/BMP_Table5.xlsx
@@ -143,15 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,72 +434,72 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>282.39999999999998</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>290</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>299.66000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>263.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>270</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>258.58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>328.7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>290</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>174.31</v>
       </c>
     </row>

--- a/figures/BMP_Table5/BMP_Table5.xlsx
+++ b/figures/BMP_Table5/BMP_Table5.xlsx
@@ -27,9 +27,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Samples</t>
-  </si>
-  <si>
-    <t>Gestating</t>
   </si>
   <si>
     <t>Fattening</t>
@@ -92,6 +89,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Gestation</t>
   </si>
 </sst>
 </file>
@@ -145,12 +145,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,72 +434,72 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
         <v>282.39999999999998</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>290</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>299.66000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
         <v>263.5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>270</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>258.58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
         <v>328.7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>290</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>174.31</v>
       </c>
     </row>

--- a/figures/BMP_Table5/BMP_Table5.xlsx
+++ b/figures/BMP_Table5/BMP_Table5.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Samples</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Fattening</t>
   </si>
@@ -44,29 +41,14 @@
     <t>This study</t>
   </si>
   <si>
+    <t>Gestation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <r>
-      <t>Specific Methane Yield (mL CH</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.VS added</t>
+      <t>(mL CH4.VS added</t>
     </r>
     <r>
       <rPr>
@@ -91,14 +73,14 @@
     </r>
   </si>
   <si>
-    <t>Gestation</t>
+    <t>Specific Methane Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,14 +90,6 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -143,13 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -431,83 +401,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>282.39999999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>328.7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>263.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>290</v>
+      </c>
+      <c r="D3" s="1">
+        <v>290</v>
+      </c>
+      <c r="E3" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>282.39999999999998</v>
-      </c>
-      <c r="C3" s="2">
-        <v>290</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C4" s="2">
         <v>299.66000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>263.5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>270</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
+        <v>174.31</v>
+      </c>
+      <c r="E4" s="2">
         <v>258.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>328.7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>290</v>
-      </c>
-      <c r="D5" s="1">
-        <v>174.31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/figures/BMP_Table5/BMP_Table5.xlsx
+++ b/figures/BMP_Table5/BMP_Table5.xlsx
@@ -73,7 +73,7 @@
     </r>
   </si>
   <si>
-    <t>Specific Methane Yield</t>
+    <t>Research</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/figures/BMP_Table5/BMP_Table5.xlsx
+++ b/figures/BMP_Table5/BMP_Table5.xlsx
@@ -47,8 +47,32 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Research</t>
+  </si>
+  <si>
     <r>
-      <t>(mL CH4.VS added</t>
+      <t>(mL.CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gVS added</t>
     </r>
     <r>
       <rPr>
@@ -72,15 +96,12 @@
       <t>)</t>
     </r>
   </si>
-  <si>
-    <t>Research</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +111,14 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -404,14 +433,17 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -426,12 +458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>282.39999999999998</v>
@@ -443,12 +475,12 @@
         <v>263.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>290</v>
@@ -460,12 +492,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>299.66000000000003</v>
